--- a/data/df2_20200726_edited.xlsx
+++ b/data/df2_20200726_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kungmo/PycharmProjects/faq_chatbot_science_3rd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C7FEC-2F65-8D4F-BB19-36FD88CAD819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725EC0D9-421C-854A-818E-D59E1186A4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15800" yWindow="1520" windowWidth="18060" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19655,9 +19655,6 @@
     <t>한랭전선이 지나간 후</t>
   </si>
   <si>
-    <t>정체전선은 언제 만들어저ㆍ</t>
-  </si>
-  <si>
     <t>다음 그림은 위도에 따른 태양 복사 에너지와 지구 복사 에너지의 평형을 나타낸 것이다ㅣ</t>
   </si>
   <si>
@@ -21711,6 +21708,10 @@
   </si>
   <si>
     <t>대기가 있으니까 온실효과가 있어서요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정체전선은 언제 만들어저</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -22096,8 +22097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3779" workbookViewId="0">
-      <selection activeCell="B3793" sqref="B3793"/>
+    <sheetView tabSelected="1" topLeftCell="A3773" workbookViewId="0">
+      <selection activeCell="B3448" sqref="B3448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -55231,10 +55232,10 @@
         <v>3012</v>
       </c>
       <c r="B3013" t="s">
+        <v>6750</v>
+      </c>
+      <c r="C3013" t="s">
         <v>6751</v>
-      </c>
-      <c r="C3013" t="s">
-        <v>6752</v>
       </c>
     </row>
     <row r="3014" spans="1:3">
@@ -56466,7 +56467,7 @@
         <v>5672</v>
       </c>
       <c r="C3125" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="3126" spans="1:3">
@@ -57555,7 +57556,7 @@
         <v>6000</v>
       </c>
       <c r="C3224" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3225" spans="1:3">
@@ -57588,7 +57589,7 @@
         <v>6003</v>
       </c>
       <c r="C3227" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3228" spans="1:3">
@@ -57599,7 +57600,7 @@
         <v>6004</v>
       </c>
       <c r="C3228" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="3229" spans="1:3">
@@ -57621,7 +57622,7 @@
         <v>6006</v>
       </c>
       <c r="C3230" t="s">
-        <v>6545</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="3231" spans="1:3">
@@ -57632,7 +57633,7 @@
         <v>6007</v>
       </c>
       <c r="C3231" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3232" spans="1:3">
@@ -57643,7 +57644,7 @@
         <v>6008</v>
       </c>
       <c r="C3232" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="3233" spans="1:3">
@@ -57654,7 +57655,7 @@
         <v>6009</v>
       </c>
       <c r="C3233" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="3234" spans="1:3">
@@ -57665,7 +57666,7 @@
         <v>6010</v>
       </c>
       <c r="C3234" t="s">
-        <v>6548</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="3235" spans="1:3">
@@ -57676,7 +57677,7 @@
         <v>6011</v>
       </c>
       <c r="C3235" t="s">
-        <v>6549</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="3236" spans="1:3">
@@ -57687,7 +57688,7 @@
         <v>6012</v>
       </c>
       <c r="C3236" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="3237" spans="1:3">
@@ -57698,7 +57699,7 @@
         <v>6013</v>
       </c>
       <c r="C3237" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="3238" spans="1:3">
@@ -57709,7 +57710,7 @@
         <v>5416</v>
       </c>
       <c r="C3238" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="3239" spans="1:3">
@@ -57720,7 +57721,7 @@
         <v>6014</v>
       </c>
       <c r="C3239" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="3240" spans="1:3">
@@ -57731,7 +57732,7 @@
         <v>6015</v>
       </c>
       <c r="C3240" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3241" spans="1:3">
@@ -57742,7 +57743,7 @@
         <v>6016</v>
       </c>
       <c r="C3241" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="3242" spans="1:3">
@@ -57753,7 +57754,7 @@
         <v>6017</v>
       </c>
       <c r="C3242" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="3243" spans="1:3">
@@ -57764,7 +57765,7 @@
         <v>6018</v>
       </c>
       <c r="C3243" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="3244" spans="1:3">
@@ -57775,7 +57776,7 @@
         <v>6019</v>
       </c>
       <c r="C3244" t="s">
-        <v>6558</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="3245" spans="1:3">
@@ -57786,7 +57787,7 @@
         <v>6020</v>
       </c>
       <c r="C3245" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="3246" spans="1:3">
@@ -57797,7 +57798,7 @@
         <v>6021</v>
       </c>
       <c r="C3246" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3247" spans="1:3">
@@ -57808,7 +57809,7 @@
         <v>6022</v>
       </c>
       <c r="C3247" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3248" spans="1:3">
@@ -57819,7 +57820,7 @@
         <v>6023</v>
       </c>
       <c r="C3248" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3249" spans="1:3">
@@ -57830,7 +57831,7 @@
         <v>6024</v>
       </c>
       <c r="C3249" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="3250" spans="1:3">
@@ -57863,7 +57864,7 @@
         <v>6027</v>
       </c>
       <c r="C3252" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="3253" spans="1:3">
@@ -57874,7 +57875,7 @@
         <v>6028</v>
       </c>
       <c r="C3253" t="s">
-        <v>6562</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="3254" spans="1:3">
@@ -57885,7 +57886,7 @@
         <v>6029</v>
       </c>
       <c r="C3254" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="3255" spans="1:3">
@@ -57896,7 +57897,7 @@
         <v>6030</v>
       </c>
       <c r="C3255" t="s">
-        <v>6564</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="3256" spans="1:3">
@@ -57907,7 +57908,7 @@
         <v>6031</v>
       </c>
       <c r="C3256" t="s">
-        <v>6565</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="3257" spans="1:3">
@@ -57918,7 +57919,7 @@
         <v>6032</v>
       </c>
       <c r="C3257" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="3258" spans="1:3">
@@ -57929,7 +57930,7 @@
         <v>6033</v>
       </c>
       <c r="C3258" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="3259" spans="1:3">
@@ -57940,7 +57941,7 @@
         <v>6034</v>
       </c>
       <c r="C3259" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="3260" spans="1:3">
@@ -57951,7 +57952,7 @@
         <v>6035</v>
       </c>
       <c r="C3260" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="3261" spans="1:3">
@@ -57962,7 +57963,7 @@
         <v>6036</v>
       </c>
       <c r="C3261" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="3262" spans="1:3">
@@ -57984,7 +57985,7 @@
         <v>6038</v>
       </c>
       <c r="C3263" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="3264" spans="1:3">
@@ -57995,7 +57996,7 @@
         <v>6039</v>
       </c>
       <c r="C3264" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="3265" spans="1:3">
@@ -58006,7 +58007,7 @@
         <v>6040</v>
       </c>
       <c r="C3265" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="3266" spans="1:3">
@@ -58017,7 +58018,7 @@
         <v>6041</v>
       </c>
       <c r="C3266" t="s">
-        <v>6574</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="3267" spans="1:3">
@@ -58028,7 +58029,7 @@
         <v>6042</v>
       </c>
       <c r="C3267" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3268" spans="1:3">
@@ -58039,7 +58040,7 @@
         <v>6043</v>
       </c>
       <c r="C3268" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="3269" spans="1:3">
@@ -58072,7 +58073,7 @@
         <v>6046</v>
       </c>
       <c r="C3271" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="3272" spans="1:3">
@@ -58083,7 +58084,7 @@
         <v>6047</v>
       </c>
       <c r="C3272" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="3273" spans="1:3">
@@ -58094,7 +58095,7 @@
         <v>6048</v>
       </c>
       <c r="C3273" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="3274" spans="1:3">
@@ -58105,7 +58106,7 @@
         <v>5682</v>
       </c>
       <c r="C3274" t="s">
-        <v>6578</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="3275" spans="1:3">
@@ -58116,7 +58117,7 @@
         <v>5681</v>
       </c>
       <c r="C3275" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="3276" spans="1:3">
@@ -58127,7 +58128,7 @@
         <v>5675</v>
       </c>
       <c r="C3276" t="s">
-        <v>6580</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="3277" spans="1:3">
@@ -58149,7 +58150,7 @@
         <v>6050</v>
       </c>
       <c r="C3278" t="s">
-        <v>6581</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="3279" spans="1:3">
@@ -58182,7 +58183,7 @@
         <v>5627</v>
       </c>
       <c r="C3281" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="3282" spans="1:3">
@@ -58193,7 +58194,7 @@
         <v>6051</v>
       </c>
       <c r="C3282" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3283" spans="1:3">
@@ -58215,7 +58216,7 @@
         <v>5655</v>
       </c>
       <c r="C3284" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3285" spans="1:3">
@@ -58226,7 +58227,7 @@
         <v>6053</v>
       </c>
       <c r="C3285" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="3286" spans="1:3">
@@ -58237,7 +58238,7 @@
         <v>6054</v>
       </c>
       <c r="C3286" t="s">
-        <v>6586</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="3287" spans="1:3">
@@ -58248,7 +58249,7 @@
         <v>6055</v>
       </c>
       <c r="C3287" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="3288" spans="1:3">
@@ -58259,7 +58260,7 @@
         <v>6056</v>
       </c>
       <c r="C3288" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="3289" spans="1:3">
@@ -58270,7 +58271,7 @@
         <v>6057</v>
       </c>
       <c r="C3289" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3290" spans="1:3">
@@ -58281,7 +58282,7 @@
         <v>6058</v>
       </c>
       <c r="C3290" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3291" spans="1:3">
@@ -58314,7 +58315,7 @@
         <v>5550</v>
       </c>
       <c r="C3293" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="3294" spans="1:3">
@@ -58325,7 +58326,7 @@
         <v>5551</v>
       </c>
       <c r="C3294" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="3295" spans="1:3">
@@ -58336,7 +58337,7 @@
         <v>6005</v>
       </c>
       <c r="C3295" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="3296" spans="1:3">
@@ -58347,7 +58348,7 @@
         <v>6060</v>
       </c>
       <c r="C3296" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="3297" spans="1:3">
@@ -58358,7 +58359,7 @@
         <v>6061</v>
       </c>
       <c r="C3297" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="3298" spans="1:3">
@@ -58380,7 +58381,7 @@
         <v>6063</v>
       </c>
       <c r="C3299" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3300" spans="1:3">
@@ -58402,7 +58403,7 @@
         <v>6065</v>
       </c>
       <c r="C3301" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="3302" spans="1:3">
@@ -58413,7 +58414,7 @@
         <v>6066</v>
       </c>
       <c r="C3302" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="3303" spans="1:3">
@@ -58435,7 +58436,7 @@
         <v>6068</v>
       </c>
       <c r="C3304" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="3305" spans="1:3">
@@ -58457,7 +58458,7 @@
         <v>6070</v>
       </c>
       <c r="C3306" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="3307" spans="1:3">
@@ -58468,7 +58469,7 @@
         <v>6071</v>
       </c>
       <c r="C3307" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3308" spans="1:3">
@@ -58479,7 +58480,7 @@
         <v>6072</v>
       </c>
       <c r="C3308" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="3309" spans="1:3">
@@ -58490,7 +58491,7 @@
         <v>6073</v>
       </c>
       <c r="C3309" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="3310" spans="1:3">
@@ -58501,7 +58502,7 @@
         <v>6074</v>
       </c>
       <c r="C3310" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="3311" spans="1:3">
@@ -58512,7 +58513,7 @@
         <v>6075</v>
       </c>
       <c r="C3311" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="3312" spans="1:3">
@@ -58534,7 +58535,7 @@
         <v>6077</v>
       </c>
       <c r="C3313" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3314" spans="1:3">
@@ -58545,7 +58546,7 @@
         <v>6078</v>
       </c>
       <c r="C3314" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3315" spans="1:3">
@@ -58556,7 +58557,7 @@
         <v>6079</v>
       </c>
       <c r="C3315" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="3316" spans="1:3">
@@ -58567,7 +58568,7 @@
         <v>6080</v>
       </c>
       <c r="C3316" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="3317" spans="1:3">
@@ -58578,7 +58579,7 @@
         <v>6081</v>
       </c>
       <c r="C3317" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="3318" spans="1:3">
@@ -58589,7 +58590,7 @@
         <v>6082</v>
       </c>
       <c r="C3318" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3319" spans="1:3">
@@ -58600,7 +58601,7 @@
         <v>6083</v>
       </c>
       <c r="C3319" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3320" spans="1:3">
@@ -58611,7 +58612,7 @@
         <v>6084</v>
       </c>
       <c r="C3320" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="3321" spans="1:3">
@@ -58633,7 +58634,7 @@
         <v>6086</v>
       </c>
       <c r="C3322" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="3323" spans="1:3">
@@ -58644,7 +58645,7 @@
         <v>6087</v>
       </c>
       <c r="C3323" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="3324" spans="1:3">
@@ -58655,7 +58656,7 @@
         <v>6088</v>
       </c>
       <c r="C3324" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="3325" spans="1:3">
@@ -58677,7 +58678,7 @@
         <v>6090</v>
       </c>
       <c r="C3326" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="3327" spans="1:3">
@@ -58688,7 +58689,7 @@
         <v>6091</v>
       </c>
       <c r="C3327" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="3328" spans="1:3">
@@ -58699,7 +58700,7 @@
         <v>6092</v>
       </c>
       <c r="C3328" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3329" spans="1:3">
@@ -58710,7 +58711,7 @@
         <v>6093</v>
       </c>
       <c r="C3329" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="3330" spans="1:3">
@@ -58721,7 +58722,7 @@
         <v>6094</v>
       </c>
       <c r="C3330" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="3331" spans="1:3">
@@ -58732,7 +58733,7 @@
         <v>6095</v>
       </c>
       <c r="C3331" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="3332" spans="1:3">
@@ -58743,7 +58744,7 @@
         <v>6096</v>
       </c>
       <c r="C3332" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3333" spans="1:3">
@@ -58754,7 +58755,7 @@
         <v>6097</v>
       </c>
       <c r="C3333" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="3334" spans="1:3">
@@ -58765,7 +58766,7 @@
         <v>6098</v>
       </c>
       <c r="C3334" t="s">
-        <v>6612</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="3335" spans="1:3">
@@ -58776,7 +58777,7 @@
         <v>6099</v>
       </c>
       <c r="C3335" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="3336" spans="1:3">
@@ -58787,7 +58788,7 @@
         <v>6100</v>
       </c>
       <c r="C3336" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="3337" spans="1:3">
@@ -58798,7 +58799,7 @@
         <v>6101</v>
       </c>
       <c r="C3337" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="3338" spans="1:3">
@@ -58809,7 +58810,7 @@
         <v>6102</v>
       </c>
       <c r="C3338" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3339" spans="1:3">
@@ -58820,7 +58821,7 @@
         <v>6103</v>
       </c>
       <c r="C3339" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3340" spans="1:3">
@@ -58831,7 +58832,7 @@
         <v>6104</v>
       </c>
       <c r="C3340" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3341" spans="1:3">
@@ -58842,7 +58843,7 @@
         <v>6105</v>
       </c>
       <c r="C3341" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="3342" spans="1:3">
@@ -58853,7 +58854,7 @@
         <v>6106</v>
       </c>
       <c r="C3342" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="3343" spans="1:3">
@@ -58875,7 +58876,7 @@
         <v>6108</v>
       </c>
       <c r="C3344" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="3345" spans="1:3">
@@ -58886,7 +58887,7 @@
         <v>6109</v>
       </c>
       <c r="C3345" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="3346" spans="1:3">
@@ -58897,7 +58898,7 @@
         <v>6110</v>
       </c>
       <c r="C3346" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="3347" spans="1:3">
@@ -58908,7 +58909,7 @@
         <v>6111</v>
       </c>
       <c r="C3347" t="s">
-        <v>6623</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="3348" spans="1:3">
@@ -58919,7 +58920,7 @@
         <v>6112</v>
       </c>
       <c r="C3348" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="3349" spans="1:3">
@@ -58941,7 +58942,7 @@
         <v>6114</v>
       </c>
       <c r="C3350" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="3351" spans="1:3">
@@ -58952,7 +58953,7 @@
         <v>6096</v>
       </c>
       <c r="C3351" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3352" spans="1:3">
@@ -58974,7 +58975,7 @@
         <v>6116</v>
       </c>
       <c r="C3353" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="3354" spans="1:3">
@@ -58985,7 +58986,7 @@
         <v>6117</v>
       </c>
       <c r="C3354" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="3355" spans="1:3">
@@ -58996,7 +58997,7 @@
         <v>6118</v>
       </c>
       <c r="C3355" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="3356" spans="1:3">
@@ -59007,7 +59008,7 @@
         <v>6119</v>
       </c>
       <c r="C3356" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="3357" spans="1:3">
@@ -59018,7 +59019,7 @@
         <v>6120</v>
       </c>
       <c r="C3357" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="3358" spans="1:3">
@@ -59029,7 +59030,7 @@
         <v>6121</v>
       </c>
       <c r="C3358" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3359" spans="1:3">
@@ -59040,7 +59041,7 @@
         <v>6122</v>
       </c>
       <c r="C3359" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="3360" spans="1:3">
@@ -59051,7 +59052,7 @@
         <v>5514</v>
       </c>
       <c r="C3360" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3361" spans="1:3">
@@ -59062,7 +59063,7 @@
         <v>6123</v>
       </c>
       <c r="C3361" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="3362" spans="1:3">
@@ -59073,7 +59074,7 @@
         <v>6124</v>
       </c>
       <c r="C3362" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="3363" spans="1:3">
@@ -59084,7 +59085,7 @@
         <v>6125</v>
       </c>
       <c r="C3363" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="3364" spans="1:3">
@@ -59095,7 +59096,7 @@
         <v>6126</v>
       </c>
       <c r="C3364" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="3365" spans="1:3">
@@ -59106,7 +59107,7 @@
         <v>6127</v>
       </c>
       <c r="C3365" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="3366" spans="1:3">
@@ -59117,7 +59118,7 @@
         <v>6128</v>
       </c>
       <c r="C3366" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="3367" spans="1:3">
@@ -59128,7 +59129,7 @@
         <v>6129</v>
       </c>
       <c r="C3367" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="3368" spans="1:3">
@@ -59139,7 +59140,7 @@
         <v>6130</v>
       </c>
       <c r="C3368" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="3369" spans="1:3">
@@ -59150,7 +59151,7 @@
         <v>6131</v>
       </c>
       <c r="C3369" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="3370" spans="1:3">
@@ -59161,7 +59162,7 @@
         <v>6132</v>
       </c>
       <c r="C3370" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="3371" spans="1:3">
@@ -59172,7 +59173,7 @@
         <v>6133</v>
       </c>
       <c r="C3371" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="3372" spans="1:3">
@@ -59183,7 +59184,7 @@
         <v>6134</v>
       </c>
       <c r="C3372" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="3373" spans="1:3">
@@ -59194,7 +59195,7 @@
         <v>6135</v>
       </c>
       <c r="C3373" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="3374" spans="1:3">
@@ -59205,7 +59206,7 @@
         <v>6136</v>
       </c>
       <c r="C3374" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="3375" spans="1:3">
@@ -59227,7 +59228,7 @@
         <v>6138</v>
       </c>
       <c r="C3376" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="3377" spans="1:3">
@@ -59238,7 +59239,7 @@
         <v>6139</v>
       </c>
       <c r="C3377" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="3378" spans="1:3">
@@ -59249,7 +59250,7 @@
         <v>6140</v>
       </c>
       <c r="C3378" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="3379" spans="1:3">
@@ -59260,7 +59261,7 @@
         <v>6141</v>
       </c>
       <c r="C3379" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="3380" spans="1:3">
@@ -59271,7 +59272,7 @@
         <v>6142</v>
       </c>
       <c r="C3380" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="3381" spans="1:3">
@@ -59282,7 +59283,7 @@
         <v>6143</v>
       </c>
       <c r="C3381" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="3382" spans="1:3">
@@ -59293,7 +59294,7 @@
         <v>6144</v>
       </c>
       <c r="C3382" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3383" spans="1:3">
@@ -59304,7 +59305,7 @@
         <v>6145</v>
       </c>
       <c r="C3383" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3384" spans="1:3">
@@ -59315,7 +59316,7 @@
         <v>6146</v>
       </c>
       <c r="C3384" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3385" spans="1:3">
@@ -59326,7 +59327,7 @@
         <v>6147</v>
       </c>
       <c r="C3385" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3386" spans="1:3">
@@ -59337,7 +59338,7 @@
         <v>6148</v>
       </c>
       <c r="C3386" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3387" spans="1:3">
@@ -59348,7 +59349,7 @@
         <v>6149</v>
       </c>
       <c r="C3387" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3388" spans="1:3">
@@ -59359,7 +59360,7 @@
         <v>6150</v>
       </c>
       <c r="C3388" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3389" spans="1:3">
@@ -59370,7 +59371,7 @@
         <v>6151</v>
       </c>
       <c r="C3389" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="3390" spans="1:3">
@@ -59381,7 +59382,7 @@
         <v>6152</v>
       </c>
       <c r="C3390" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="3391" spans="1:3">
@@ -59403,7 +59404,7 @@
         <v>6154</v>
       </c>
       <c r="C3392" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="3393" spans="1:3">
@@ -59414,7 +59415,7 @@
         <v>6155</v>
       </c>
       <c r="C3393" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="3394" spans="1:3">
@@ -59425,7 +59426,7 @@
         <v>6156</v>
       </c>
       <c r="C3394" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3395" spans="1:3">
@@ -59436,7 +59437,7 @@
         <v>6157</v>
       </c>
       <c r="C3395" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="3396" spans="1:3">
@@ -59447,7 +59448,7 @@
         <v>6158</v>
       </c>
       <c r="C3396" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="3397" spans="1:3">
@@ -59458,7 +59459,7 @@
         <v>6159</v>
       </c>
       <c r="C3397" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="3398" spans="1:3">
@@ -59469,7 +59470,7 @@
         <v>6160</v>
       </c>
       <c r="C3398" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="3399" spans="1:3">
@@ -59480,7 +59481,7 @@
         <v>6161</v>
       </c>
       <c r="C3399" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="3400" spans="1:3">
@@ -59491,7 +59492,7 @@
         <v>6162</v>
       </c>
       <c r="C3400" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3401" spans="1:3">
@@ -59502,7 +59503,7 @@
         <v>6163</v>
       </c>
       <c r="C3401" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3402" spans="1:3">
@@ -59513,7 +59514,7 @@
         <v>6164</v>
       </c>
       <c r="C3402" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="3403" spans="1:3">
@@ -59524,7 +59525,7 @@
         <v>6165</v>
       </c>
       <c r="C3403" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="3404" spans="1:3">
@@ -59535,7 +59536,7 @@
         <v>6166</v>
       </c>
       <c r="C3404" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="3405" spans="1:3">
@@ -59579,7 +59580,7 @@
         <v>6170</v>
       </c>
       <c r="C3408" t="s">
-        <v>6661</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="3409" spans="1:3">
@@ -59590,7 +59591,7 @@
         <v>6171</v>
       </c>
       <c r="C3409" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="3410" spans="1:3">
@@ -59601,7 +59602,7 @@
         <v>6172</v>
       </c>
       <c r="C3410" t="s">
-        <v>6663</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="3411" spans="1:3">
@@ -59612,7 +59613,7 @@
         <v>6173</v>
       </c>
       <c r="C3411" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="3412" spans="1:3">
@@ -59645,7 +59646,7 @@
         <v>6176</v>
       </c>
       <c r="C3414" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3415" spans="1:3">
@@ -59656,7 +59657,7 @@
         <v>6177</v>
       </c>
       <c r="C3415" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="3416" spans="1:3">
@@ -59667,7 +59668,7 @@
         <v>6178</v>
       </c>
       <c r="C3416" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="3417" spans="1:3">
@@ -59678,7 +59679,7 @@
         <v>6179</v>
       </c>
       <c r="C3417" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="3418" spans="1:3">
@@ -59689,7 +59690,7 @@
         <v>6180</v>
       </c>
       <c r="C3418" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="3419" spans="1:3">
@@ -59700,7 +59701,7 @@
         <v>6181</v>
       </c>
       <c r="C3419" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="3420" spans="1:3">
@@ -59711,7 +59712,7 @@
         <v>6182</v>
       </c>
       <c r="C3420" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="3421" spans="1:3">
@@ -59722,7 +59723,7 @@
         <v>6183</v>
       </c>
       <c r="C3421" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3422" spans="1:3">
@@ -59733,7 +59734,7 @@
         <v>6184</v>
       </c>
       <c r="C3422" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="3423" spans="1:3">
@@ -59744,7 +59745,7 @@
         <v>6185</v>
       </c>
       <c r="C3423" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="3424" spans="1:3">
@@ -59755,7 +59756,7 @@
         <v>6186</v>
       </c>
       <c r="C3424" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="3425" spans="1:3">
@@ -59766,7 +59767,7 @@
         <v>6187</v>
       </c>
       <c r="C3425" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="3426" spans="1:3">
@@ -59777,7 +59778,7 @@
         <v>6188</v>
       </c>
       <c r="C3426" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="3427" spans="1:3">
@@ -59788,7 +59789,7 @@
         <v>6189</v>
       </c>
       <c r="C3427" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="3428" spans="1:3">
@@ -59810,7 +59811,7 @@
         <v>6191</v>
       </c>
       <c r="C3429" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="3430" spans="1:3">
@@ -59821,7 +59822,7 @@
         <v>6192</v>
       </c>
       <c r="C3430" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="3431" spans="1:3">
@@ -59832,7 +59833,7 @@
         <v>6193</v>
       </c>
       <c r="C3431" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="3432" spans="1:3">
@@ -59843,7 +59844,7 @@
         <v>6194</v>
       </c>
       <c r="C3432" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="3433" spans="1:3">
@@ -59854,7 +59855,7 @@
         <v>6195</v>
       </c>
       <c r="C3433" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="3434" spans="1:3">
@@ -59865,7 +59866,7 @@
         <v>6196</v>
       </c>
       <c r="C3434" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="3435" spans="1:3">
@@ -59876,7 +59877,7 @@
         <v>6197</v>
       </c>
       <c r="C3435" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="3436" spans="1:3">
@@ -59887,7 +59888,7 @@
         <v>6198</v>
       </c>
       <c r="C3436" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="3437" spans="1:3">
@@ -59909,7 +59910,7 @@
         <v>6200</v>
       </c>
       <c r="C3438" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="3439" spans="1:3">
@@ -59920,7 +59921,7 @@
         <v>6201</v>
       </c>
       <c r="C3439" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="3440" spans="1:3">
@@ -59931,7 +59932,7 @@
         <v>6202</v>
       </c>
       <c r="C3440" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="3441" spans="1:3">
@@ -59964,7 +59965,7 @@
         <v>6205</v>
       </c>
       <c r="C3443" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="3444" spans="1:3">
@@ -59975,7 +59976,7 @@
         <v>6206</v>
       </c>
       <c r="C3444" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="3445" spans="1:3">
@@ -59986,7 +59987,7 @@
         <v>6207</v>
       </c>
       <c r="C3445" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="3446" spans="1:3">
@@ -59997,7 +59998,7 @@
         <v>6208</v>
       </c>
       <c r="C3446" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="3447" spans="1:3">
@@ -60008,7 +60009,7 @@
         <v>6209</v>
       </c>
       <c r="C3447" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="3448" spans="1:3">
@@ -60019,7 +60020,7 @@
         <v>6210</v>
       </c>
       <c r="C3448" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="3449" spans="1:3">
@@ -60030,7 +60031,7 @@
         <v>6211</v>
       </c>
       <c r="C3449" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="3450" spans="1:3">
@@ -60041,7 +60042,7 @@
         <v>6212</v>
       </c>
       <c r="C3450" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="3451" spans="1:3">
@@ -60052,7 +60053,7 @@
         <v>6213</v>
       </c>
       <c r="C3451" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="3452" spans="1:3">
@@ -60063,7 +60064,7 @@
         <v>6032</v>
       </c>
       <c r="C3452" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="3453" spans="1:3">
@@ -60074,7 +60075,7 @@
         <v>6214</v>
       </c>
       <c r="C3453" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="3454" spans="1:3">
@@ -60085,7 +60086,7 @@
         <v>6215</v>
       </c>
       <c r="C3454" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="3455" spans="1:3">
@@ -60096,7 +60097,7 @@
         <v>6216</v>
       </c>
       <c r="C3455" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="3456" spans="1:3">
@@ -60107,7 +60108,7 @@
         <v>6217</v>
       </c>
       <c r="C3456" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="3457" spans="1:3">
@@ -60118,7 +60119,7 @@
         <v>6218</v>
       </c>
       <c r="C3457" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3458" spans="1:3">
@@ -60129,7 +60130,7 @@
         <v>6063</v>
       </c>
       <c r="C3458" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3459" spans="1:3">
@@ -60140,7 +60141,7 @@
         <v>6219</v>
       </c>
       <c r="C3459" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="3460" spans="1:3">
@@ -60151,7 +60152,7 @@
         <v>6220</v>
       </c>
       <c r="C3460" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="3461" spans="1:3">
@@ -60162,7 +60163,7 @@
         <v>6221</v>
       </c>
       <c r="C3461" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="3462" spans="1:3">
@@ -60173,7 +60174,7 @@
         <v>6222</v>
       </c>
       <c r="C3462" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3463" spans="1:3">
@@ -60184,7 +60185,7 @@
         <v>6223</v>
       </c>
       <c r="C3463" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="3464" spans="1:3">
@@ -60195,7 +60196,7 @@
         <v>6224</v>
       </c>
       <c r="C3464" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3465" spans="1:3">
@@ -60206,7 +60207,7 @@
         <v>6120</v>
       </c>
       <c r="C3465" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="3466" spans="1:3">
@@ -60217,7 +60218,7 @@
         <v>6225</v>
       </c>
       <c r="C3466" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="3467" spans="1:3">
@@ -60228,7 +60229,7 @@
         <v>6226</v>
       </c>
       <c r="C3467" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="3468" spans="1:3">
@@ -60239,7 +60240,7 @@
         <v>6227</v>
       </c>
       <c r="C3468" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="3469" spans="1:3">
@@ -60250,7 +60251,7 @@
         <v>6228</v>
       </c>
       <c r="C3469" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="3470" spans="1:3">
@@ -60261,7 +60262,7 @@
         <v>6229</v>
       </c>
       <c r="C3470" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="3471" spans="1:3">
@@ -60272,7 +60273,7 @@
         <v>6130</v>
       </c>
       <c r="C3471" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="3472" spans="1:3">
@@ -60283,7 +60284,7 @@
         <v>6230</v>
       </c>
       <c r="C3472" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="3473" spans="1:3">
@@ -60294,7 +60295,7 @@
         <v>6231</v>
       </c>
       <c r="C3473" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="3474" spans="1:3">
@@ -60305,7 +60306,7 @@
         <v>6232</v>
       </c>
       <c r="C3474" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="3475" spans="1:3">
@@ -60316,7 +60317,7 @@
         <v>6233</v>
       </c>
       <c r="C3475" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="3476" spans="1:3">
@@ -60327,7 +60328,7 @@
         <v>6234</v>
       </c>
       <c r="C3476" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="3477" spans="1:3">
@@ -60338,7 +60339,7 @@
         <v>6235</v>
       </c>
       <c r="C3477" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="3478" spans="1:3">
@@ -60349,7 +60350,7 @@
         <v>6236</v>
       </c>
       <c r="C3478" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="3479" spans="1:3">
@@ -60360,7 +60361,7 @@
         <v>6237</v>
       </c>
       <c r="C3479" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="3480" spans="1:3">
@@ -60371,7 +60372,7 @@
         <v>6238</v>
       </c>
       <c r="C3480" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="3481" spans="1:3">
@@ -60382,7 +60383,7 @@
         <v>6239</v>
       </c>
       <c r="C3481" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="3482" spans="1:3">
@@ -60393,7 +60394,7 @@
         <v>6240</v>
       </c>
       <c r="C3482" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="3483" spans="1:3">
@@ -60404,7 +60405,7 @@
         <v>6241</v>
       </c>
       <c r="C3483" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="3484" spans="1:3">
@@ -60415,7 +60416,7 @@
         <v>6242</v>
       </c>
       <c r="C3484" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="3485" spans="1:3">
@@ -60426,7 +60427,7 @@
         <v>6243</v>
       </c>
       <c r="C3485" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="3486" spans="1:3">
@@ -60448,7 +60449,7 @@
         <v>6245</v>
       </c>
       <c r="C3487" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="3488" spans="1:3">
@@ -60470,7 +60471,7 @@
         <v>6247</v>
       </c>
       <c r="C3489" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="3490" spans="1:3">
@@ -60492,7 +60493,7 @@
         <v>6249</v>
       </c>
       <c r="C3491" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="3492" spans="1:3">
@@ -60503,7 +60504,7 @@
         <v>6250</v>
       </c>
       <c r="C3492" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="3493" spans="1:3">
@@ -60514,7 +60515,7 @@
         <v>6251</v>
       </c>
       <c r="C3493" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="3494" spans="1:3">
@@ -60536,7 +60537,7 @@
         <v>6253</v>
       </c>
       <c r="C3495" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="3496" spans="1:3">
@@ -60558,7 +60559,7 @@
         <v>6255</v>
       </c>
       <c r="C3497" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="3498" spans="1:3">
@@ -60580,7 +60581,7 @@
         <v>6257</v>
       </c>
       <c r="C3499" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="3500" spans="1:3">
@@ -60591,7 +60592,7 @@
         <v>6258</v>
       </c>
       <c r="C3500" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="3501" spans="1:3">
@@ -60602,7 +60603,7 @@
         <v>6259</v>
       </c>
       <c r="C3501" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="3502" spans="1:3">
@@ -60613,7 +60614,7 @@
         <v>6260</v>
       </c>
       <c r="C3502" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="3503" spans="1:3">
@@ -60624,7 +60625,7 @@
         <v>6261</v>
       </c>
       <c r="C3503" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="3504" spans="1:3">
@@ -60635,7 +60636,7 @@
         <v>6262</v>
       </c>
       <c r="C3504" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="3505" spans="1:3">
@@ -60646,7 +60647,7 @@
         <v>6263</v>
       </c>
       <c r="C3505" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="3506" spans="1:3">
@@ -60657,7 +60658,7 @@
         <v>6264</v>
       </c>
       <c r="C3506" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="3507" spans="1:3">
@@ -60668,7 +60669,7 @@
         <v>6265</v>
       </c>
       <c r="C3507" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="3508" spans="1:3">
@@ -60679,7 +60680,7 @@
         <v>6266</v>
       </c>
       <c r="C3508" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="3509" spans="1:3">
@@ -60690,7 +60691,7 @@
         <v>6267</v>
       </c>
       <c r="C3509" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="3510" spans="1:3">
@@ -60712,7 +60713,7 @@
         <v>6269</v>
       </c>
       <c r="C3511" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="3512" spans="1:3">
@@ -60723,7 +60724,7 @@
         <v>6270</v>
       </c>
       <c r="C3512" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="3513" spans="1:3">
@@ -60734,7 +60735,7 @@
         <v>6271</v>
       </c>
       <c r="C3513" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="3514" spans="1:3">
@@ -60745,7 +60746,7 @@
         <v>6272</v>
       </c>
       <c r="C3514" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="3515" spans="1:3">
@@ -60756,7 +60757,7 @@
         <v>6273</v>
       </c>
       <c r="C3515" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="3516" spans="1:3">
@@ -60778,7 +60779,7 @@
         <v>6274</v>
       </c>
       <c r="C3517" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="3518" spans="1:3">
@@ -60789,7 +60790,7 @@
         <v>6275</v>
       </c>
       <c r="C3518" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
     </row>
     <row r="3519" spans="1:3">
@@ -60800,7 +60801,7 @@
         <v>6276</v>
       </c>
       <c r="C3519" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3520" spans="1:3">
@@ -60811,7 +60812,7 @@
         <v>6277</v>
       </c>
       <c r="C3520" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3521" spans="1:3">
@@ -60822,7 +60823,7 @@
         <v>6278</v>
       </c>
       <c r="C3521" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="3522" spans="1:3">
@@ -60833,7 +60834,7 @@
         <v>6279</v>
       </c>
       <c r="C3522" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="3523" spans="1:3">
@@ -60844,7 +60845,7 @@
         <v>6280</v>
       </c>
       <c r="C3523" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="3524" spans="1:3">
@@ -60866,7 +60867,7 @@
         <v>6281</v>
       </c>
       <c r="C3525" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="3526" spans="1:3">
@@ -60877,7 +60878,7 @@
         <v>6282</v>
       </c>
       <c r="C3526" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="3527" spans="1:3">
@@ -60888,7 +60889,7 @@
         <v>6283</v>
       </c>
       <c r="C3527" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="3528" spans="1:3">
@@ -60899,7 +60900,7 @@
         <v>6284</v>
       </c>
       <c r="C3528" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="3529" spans="1:3">
@@ -60910,7 +60911,7 @@
         <v>6285</v>
       </c>
       <c r="C3529" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="3530" spans="1:3">
@@ -60921,7 +60922,7 @@
         <v>6286</v>
       </c>
       <c r="C3530" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="3531" spans="1:3">
@@ -60932,7 +60933,7 @@
         <v>6287</v>
       </c>
       <c r="C3531" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="3532" spans="1:3">
@@ -60943,7 +60944,7 @@
         <v>6288</v>
       </c>
       <c r="C3532" t="s">
-        <v>6747</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="3533" spans="1:3">
@@ -60965,7 +60966,7 @@
         <v>6290</v>
       </c>
       <c r="C3534" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="3535" spans="1:3">
@@ -60976,7 +60977,7 @@
         <v>6291</v>
       </c>
       <c r="C3535" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="3536" spans="1:3">
@@ -60987,7 +60988,7 @@
         <v>6292</v>
       </c>
       <c r="C3536" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3537" spans="1:3">
@@ -60998,7 +60999,7 @@
         <v>6293</v>
       </c>
       <c r="C3537" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="3538" spans="1:3">
@@ -61009,7 +61010,7 @@
         <v>6294</v>
       </c>
       <c r="C3538" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="3539" spans="1:3">
@@ -61020,7 +61021,7 @@
         <v>6295</v>
       </c>
       <c r="C3539" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="3540" spans="1:3">
@@ -61031,7 +61032,7 @@
         <v>6296</v>
       </c>
       <c r="C3540" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="3541" spans="1:3">
@@ -61042,7 +61043,7 @@
         <v>6297</v>
       </c>
       <c r="C3541" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="3542" spans="1:3">
@@ -61053,7 +61054,7 @@
         <v>6298</v>
       </c>
       <c r="C3542" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="3543" spans="1:3">
@@ -61064,7 +61065,7 @@
         <v>6299</v>
       </c>
       <c r="C3543" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="3544" spans="1:3">
@@ -61075,7 +61076,7 @@
         <v>6300</v>
       </c>
       <c r="C3544" s="4" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="3545" spans="1:3">
@@ -61086,7 +61087,7 @@
         <v>6301</v>
       </c>
       <c r="C3545" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="3546" spans="1:3">
@@ -61097,7 +61098,7 @@
         <v>6302</v>
       </c>
       <c r="C3546" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="3547" spans="1:3">
@@ -61108,7 +61109,7 @@
         <v>6303</v>
       </c>
       <c r="C3547" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="3548" spans="1:3">
@@ -61119,7 +61120,7 @@
         <v>6304</v>
       </c>
       <c r="C3548" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="3549" spans="1:3">
@@ -61130,7 +61131,7 @@
         <v>6305</v>
       </c>
       <c r="C3549" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="3550" spans="1:3">
@@ -61141,7 +61142,7 @@
         <v>6306</v>
       </c>
       <c r="C3550" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="3551" spans="1:3">
@@ -61152,7 +61153,7 @@
         <v>6307</v>
       </c>
       <c r="C3551" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="3552" spans="1:3">
@@ -61163,7 +61164,7 @@
         <v>6308</v>
       </c>
       <c r="C3552" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="3553" spans="1:3">
@@ -61174,7 +61175,7 @@
         <v>6309</v>
       </c>
       <c r="C3553" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="3554" spans="1:3">
@@ -61185,7 +61186,7 @@
         <v>6310</v>
       </c>
       <c r="C3554" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="3555" spans="1:3">
@@ -61196,7 +61197,7 @@
         <v>6311</v>
       </c>
       <c r="C3555" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="3556" spans="1:3">
@@ -61207,7 +61208,7 @@
         <v>6077</v>
       </c>
       <c r="C3556" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="3557" spans="1:3">
@@ -61218,7 +61219,7 @@
         <v>6312</v>
       </c>
       <c r="C3557" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3558" spans="1:3">
@@ -61229,7 +61230,7 @@
         <v>6313</v>
       </c>
       <c r="C3558" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="3559" spans="1:3">
@@ -61262,7 +61263,7 @@
         <v>6316</v>
       </c>
       <c r="C3561" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="3562" spans="1:3">
@@ -61273,7 +61274,7 @@
         <v>6317</v>
       </c>
       <c r="C3562" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="3563" spans="1:3">
@@ -61284,7 +61285,7 @@
         <v>6318</v>
       </c>
       <c r="C3563" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="3564" spans="1:3">
@@ -61295,7 +61296,7 @@
         <v>6319</v>
       </c>
       <c r="C3564" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="3565" spans="1:3">
@@ -61306,7 +61307,7 @@
         <v>6320</v>
       </c>
       <c r="C3565" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="3566" spans="1:3">
@@ -61317,7 +61318,7 @@
         <v>6321</v>
       </c>
       <c r="C3566" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="3567" spans="1:3">
@@ -61328,7 +61329,7 @@
         <v>6322</v>
       </c>
       <c r="C3567" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="3568" spans="1:3">
@@ -61339,7 +61340,7 @@
         <v>6323</v>
       </c>
       <c r="C3568" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3569" spans="1:3">
@@ -61361,7 +61362,7 @@
         <v>6324</v>
       </c>
       <c r="C3570" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="3571" spans="1:3">
@@ -61372,7 +61373,7 @@
         <v>6325</v>
       </c>
       <c r="C3571" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="3572" spans="1:3">
@@ -61383,7 +61384,7 @@
         <v>6326</v>
       </c>
       <c r="C3572" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3573" spans="1:3">
@@ -61394,7 +61395,7 @@
         <v>6327</v>
       </c>
       <c r="C3573" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="3574" spans="1:3">
@@ -61405,7 +61406,7 @@
         <v>6328</v>
       </c>
       <c r="C3574" t="s">
-        <v>6780</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="3575" spans="1:3">
@@ -61438,7 +61439,7 @@
         <v>6331</v>
       </c>
       <c r="C3577" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="3578" spans="1:3">
@@ -61449,7 +61450,7 @@
         <v>6332</v>
       </c>
       <c r="C3578" t="s">
-        <v>6782</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="3579" spans="1:3">
@@ -61460,7 +61461,7 @@
         <v>6333</v>
       </c>
       <c r="C3579" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="3580" spans="1:3">
@@ -61471,7 +61472,7 @@
         <v>6334</v>
       </c>
       <c r="C3580" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="3581" spans="1:3">
@@ -61482,7 +61483,7 @@
         <v>6335</v>
       </c>
       <c r="C3581" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="3582" spans="1:3">
@@ -61493,7 +61494,7 @@
         <v>6336</v>
       </c>
       <c r="C3582" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="3583" spans="1:3">
@@ -61504,7 +61505,7 @@
         <v>6337</v>
       </c>
       <c r="C3583" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3584" spans="1:3">
@@ -61515,7 +61516,7 @@
         <v>6338</v>
       </c>
       <c r="C3584" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="3585" spans="1:3">
@@ -61526,7 +61527,7 @@
         <v>6339</v>
       </c>
       <c r="C3585" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="3586" spans="1:3">
@@ -61537,7 +61538,7 @@
         <v>6340</v>
       </c>
       <c r="C3586" t="s">
-        <v>6789</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="3587" spans="1:3">
@@ -61548,7 +61549,7 @@
         <v>6341</v>
       </c>
       <c r="C3587" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="3588" spans="1:3">
@@ -61559,7 +61560,7 @@
         <v>6342</v>
       </c>
       <c r="C3588" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="3589" spans="1:3">
@@ -61570,7 +61571,7 @@
         <v>6343</v>
       </c>
       <c r="C3589" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="3590" spans="1:3">
@@ -61581,7 +61582,7 @@
         <v>6344</v>
       </c>
       <c r="C3590" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="3591" spans="1:3">
@@ -61592,7 +61593,7 @@
         <v>6345</v>
       </c>
       <c r="C3591" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="3592" spans="1:3">
@@ -61603,7 +61604,7 @@
         <v>6346</v>
       </c>
       <c r="C3592" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3593" spans="1:3">
@@ -61614,7 +61615,7 @@
         <v>6347</v>
       </c>
       <c r="C3593" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3594" spans="1:3">
@@ -61625,7 +61626,7 @@
         <v>6348</v>
       </c>
       <c r="C3594" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3595" spans="1:3">
@@ -61636,7 +61637,7 @@
         <v>6349</v>
       </c>
       <c r="C3595" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="3596" spans="1:3">
@@ -61647,7 +61648,7 @@
         <v>6350</v>
       </c>
       <c r="C3596" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="3597" spans="1:3">
@@ -61658,7 +61659,7 @@
         <v>6351</v>
       </c>
       <c r="C3597" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="3598" spans="1:3">
@@ -61669,7 +61670,7 @@
         <v>6352</v>
       </c>
       <c r="C3598" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="3599" spans="1:3">
@@ -61680,7 +61681,7 @@
         <v>6353</v>
       </c>
       <c r="C3599" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="3600" spans="1:3">
@@ -61691,7 +61692,7 @@
         <v>6354</v>
       </c>
       <c r="C3600" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="3601" spans="1:3">
@@ -61713,7 +61714,7 @@
         <v>6356</v>
       </c>
       <c r="C3602" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="3603" spans="1:3">
@@ -61724,7 +61725,7 @@
         <v>6357</v>
       </c>
       <c r="C3603" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="3604" spans="1:3">
@@ -61735,7 +61736,7 @@
         <v>6358</v>
       </c>
       <c r="C3604" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="3605" spans="1:3">
@@ -61746,7 +61747,7 @@
         <v>6359</v>
       </c>
       <c r="C3605" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="3606" spans="1:3">
@@ -61757,7 +61758,7 @@
         <v>6360</v>
       </c>
       <c r="C3606" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="3607" spans="1:3">
@@ -61765,10 +61766,10 @@
         <v>3606</v>
       </c>
       <c r="B3607" t="s">
-        <v>6361</v>
+        <v>6923</v>
       </c>
       <c r="C3607" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="3608" spans="1:3">
@@ -61776,10 +61777,10 @@
         <v>3607</v>
       </c>
       <c r="B3608" t="s">
-        <v>6362</v>
+        <v>6361</v>
       </c>
       <c r="C3608" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="3609" spans="1:3">
@@ -61787,10 +61788,10 @@
         <v>3608</v>
       </c>
       <c r="B3609" t="s">
-        <v>6363</v>
+        <v>6362</v>
       </c>
       <c r="C3609" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="3610" spans="1:3">
@@ -61798,10 +61799,10 @@
         <v>3609</v>
       </c>
       <c r="B3610" t="s">
-        <v>6364</v>
+        <v>6363</v>
       </c>
       <c r="C3610" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="3611" spans="1:3">
@@ -61809,10 +61810,10 @@
         <v>3610</v>
       </c>
       <c r="B3611" t="s">
-        <v>6365</v>
+        <v>6364</v>
       </c>
       <c r="C3611" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3612" spans="1:3">
@@ -61820,10 +61821,10 @@
         <v>3611</v>
       </c>
       <c r="B3612" t="s">
-        <v>6366</v>
+        <v>6365</v>
       </c>
       <c r="C3612" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="3613" spans="1:3">
@@ -61831,10 +61832,10 @@
         <v>3612</v>
       </c>
       <c r="B3613" t="s">
-        <v>6367</v>
+        <v>6366</v>
       </c>
       <c r="C3613" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="3614" spans="1:3">
@@ -61842,10 +61843,10 @@
         <v>3613</v>
       </c>
       <c r="B3614" t="s">
-        <v>6368</v>
+        <v>6367</v>
       </c>
       <c r="C3614" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="3615" spans="1:3">
@@ -61853,10 +61854,10 @@
         <v>3614</v>
       </c>
       <c r="B3615" t="s">
-        <v>6369</v>
+        <v>6368</v>
       </c>
       <c r="C3615" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="3616" spans="1:3">
@@ -61864,10 +61865,10 @@
         <v>3615</v>
       </c>
       <c r="B3616" t="s">
-        <v>6370</v>
+        <v>6369</v>
       </c>
       <c r="C3616" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="3617" spans="1:3">
@@ -61886,10 +61887,10 @@
         <v>3617</v>
       </c>
       <c r="B3618" t="s">
-        <v>6371</v>
+        <v>6370</v>
       </c>
       <c r="C3618" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="3619" spans="1:3">
@@ -61897,10 +61898,10 @@
         <v>3618</v>
       </c>
       <c r="B3619" t="s">
-        <v>6372</v>
+        <v>6371</v>
       </c>
       <c r="C3619" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="3620" spans="1:3">
@@ -61908,7 +61909,7 @@
         <v>3619</v>
       </c>
       <c r="B3620" t="s">
-        <v>6373</v>
+        <v>6372</v>
       </c>
       <c r="C3620" t="s">
         <v>5371</v>
@@ -61919,10 +61920,10 @@
         <v>3620</v>
       </c>
       <c r="B3621" t="s">
-        <v>6374</v>
+        <v>6373</v>
       </c>
       <c r="C3621" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="3622" spans="1:3">
@@ -61930,10 +61931,10 @@
         <v>3621</v>
       </c>
       <c r="B3622" t="s">
-        <v>6375</v>
+        <v>6374</v>
       </c>
       <c r="C3622" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="3623" spans="1:3">
@@ -61941,10 +61942,10 @@
         <v>3622</v>
       </c>
       <c r="B3623" t="s">
-        <v>6376</v>
+        <v>6375</v>
       </c>
       <c r="C3623" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="3624" spans="1:3">
@@ -61952,10 +61953,10 @@
         <v>3623</v>
       </c>
       <c r="B3624" t="s">
-        <v>6377</v>
+        <v>6376</v>
       </c>
       <c r="C3624" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="3625" spans="1:3">
@@ -61963,10 +61964,10 @@
         <v>3624</v>
       </c>
       <c r="B3625" t="s">
-        <v>6378</v>
+        <v>6377</v>
       </c>
       <c r="C3625" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="3626" spans="1:3">
@@ -61974,10 +61975,10 @@
         <v>3625</v>
       </c>
       <c r="B3626" t="s">
-        <v>6379</v>
+        <v>6378</v>
       </c>
       <c r="C3626" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="3627" spans="1:3">
@@ -61985,10 +61986,10 @@
         <v>3626</v>
       </c>
       <c r="B3627" t="s">
-        <v>6380</v>
+        <v>6379</v>
       </c>
       <c r="C3627" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
     </row>
     <row r="3628" spans="1:3">
@@ -61996,10 +61997,10 @@
         <v>3627</v>
       </c>
       <c r="B3628" t="s">
-        <v>6381</v>
+        <v>6380</v>
       </c>
       <c r="C3628" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="3629" spans="1:3">
@@ -62007,10 +62008,10 @@
         <v>3628</v>
       </c>
       <c r="B3629" t="s">
-        <v>6382</v>
+        <v>6381</v>
       </c>
       <c r="C3629" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="3630" spans="1:3">
@@ -62018,10 +62019,10 @@
         <v>3629</v>
       </c>
       <c r="B3630" t="s">
-        <v>6383</v>
+        <v>6382</v>
       </c>
       <c r="C3630" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="3631" spans="1:3">
@@ -62029,10 +62030,10 @@
         <v>3630</v>
       </c>
       <c r="B3631" t="s">
-        <v>6384</v>
+        <v>6383</v>
       </c>
       <c r="C3631" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="3632" spans="1:3">
@@ -62040,10 +62041,10 @@
         <v>3631</v>
       </c>
       <c r="B3632" t="s">
-        <v>6385</v>
+        <v>6384</v>
       </c>
       <c r="C3632" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="3633" spans="1:3">
@@ -62051,10 +62052,10 @@
         <v>3632</v>
       </c>
       <c r="B3633" t="s">
-        <v>6386</v>
+        <v>6385</v>
       </c>
       <c r="C3633" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="3634" spans="1:3">
@@ -62062,10 +62063,10 @@
         <v>3633</v>
       </c>
       <c r="B3634" t="s">
-        <v>6387</v>
+        <v>6386</v>
       </c>
       <c r="C3634" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="3635" spans="1:3">
@@ -62073,10 +62074,10 @@
         <v>3634</v>
       </c>
       <c r="B3635" t="s">
-        <v>6388</v>
+        <v>6387</v>
       </c>
       <c r="C3635" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="3636" spans="1:3">
@@ -62084,10 +62085,10 @@
         <v>3635</v>
       </c>
       <c r="B3636" t="s">
-        <v>6389</v>
+        <v>6388</v>
       </c>
       <c r="C3636" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="3637" spans="1:3">
@@ -62095,10 +62096,10 @@
         <v>3636</v>
       </c>
       <c r="B3637" t="s">
-        <v>6390</v>
+        <v>6389</v>
       </c>
       <c r="C3637" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="3638" spans="1:3">
@@ -62106,10 +62107,10 @@
         <v>3637</v>
       </c>
       <c r="B3638" t="s">
-        <v>6391</v>
+        <v>6390</v>
       </c>
       <c r="C3638" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="3639" spans="1:3">
@@ -62117,10 +62118,10 @@
         <v>3638</v>
       </c>
       <c r="B3639" t="s">
-        <v>6392</v>
+        <v>6391</v>
       </c>
       <c r="C3639" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="3640" spans="1:3">
@@ -62128,7 +62129,7 @@
         <v>3639</v>
       </c>
       <c r="B3640" t="s">
-        <v>6393</v>
+        <v>6392</v>
       </c>
       <c r="C3640" t="s">
         <v>5371</v>
@@ -62139,7 +62140,7 @@
         <v>3640</v>
       </c>
       <c r="B3641" t="s">
-        <v>6394</v>
+        <v>6393</v>
       </c>
       <c r="C3641" t="s">
         <v>5403</v>
@@ -62150,10 +62151,10 @@
         <v>3641</v>
       </c>
       <c r="B3642" t="s">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="C3642" t="s">
-        <v>6826</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="3643" spans="1:3">
@@ -62161,10 +62162,10 @@
         <v>3642</v>
       </c>
       <c r="B3643" t="s">
-        <v>6396</v>
+        <v>6395</v>
       </c>
       <c r="C3643" t="s">
-        <v>6827</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="3644" spans="1:3">
@@ -62172,10 +62173,10 @@
         <v>3643</v>
       </c>
       <c r="B3644" t="s">
-        <v>6397</v>
+        <v>6396</v>
       </c>
       <c r="C3644" t="s">
-        <v>6828</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="3645" spans="1:3">
@@ -62183,10 +62184,10 @@
         <v>3644</v>
       </c>
       <c r="B3645" t="s">
-        <v>6398</v>
+        <v>6397</v>
       </c>
       <c r="C3645" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="3646" spans="1:3">
@@ -62194,10 +62195,10 @@
         <v>3645</v>
       </c>
       <c r="B3646" t="s">
-        <v>6399</v>
+        <v>6398</v>
       </c>
       <c r="C3646" t="s">
-        <v>6830</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="3647" spans="1:3">
@@ -62205,10 +62206,10 @@
         <v>3646</v>
       </c>
       <c r="B3647" t="s">
-        <v>6400</v>
+        <v>6399</v>
       </c>
       <c r="C3647" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="3648" spans="1:3">
@@ -62216,10 +62217,10 @@
         <v>3647</v>
       </c>
       <c r="B3648" t="s">
-        <v>6401</v>
+        <v>6400</v>
       </c>
       <c r="C3648" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="3649" spans="1:3">
@@ -62227,10 +62228,10 @@
         <v>3648</v>
       </c>
       <c r="B3649" t="s">
-        <v>6402</v>
+        <v>6401</v>
       </c>
       <c r="C3649" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="3650" spans="1:3">
@@ -62238,10 +62239,10 @@
         <v>3649</v>
       </c>
       <c r="B3650" t="s">
-        <v>6403</v>
+        <v>6402</v>
       </c>
       <c r="C3650" t="s">
-        <v>6832</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="3651" spans="1:3">
@@ -62249,10 +62250,10 @@
         <v>3650</v>
       </c>
       <c r="B3651" t="s">
-        <v>6404</v>
+        <v>6403</v>
       </c>
       <c r="C3651" t="s">
-        <v>6833</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="3652" spans="1:3">
@@ -62260,10 +62261,10 @@
         <v>3651</v>
       </c>
       <c r="B3652" t="s">
-        <v>6405</v>
+        <v>6404</v>
       </c>
       <c r="C3652" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3653" spans="1:3">
@@ -62271,10 +62272,10 @@
         <v>3652</v>
       </c>
       <c r="B3653" t="s">
-        <v>6406</v>
+        <v>6405</v>
       </c>
       <c r="C3653" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="3654" spans="1:3">
@@ -62282,10 +62283,10 @@
         <v>3653</v>
       </c>
       <c r="B3654" t="s">
-        <v>6407</v>
+        <v>6406</v>
       </c>
       <c r="C3654" t="s">
-        <v>6828</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="3655" spans="1:3">
@@ -62293,10 +62294,10 @@
         <v>3654</v>
       </c>
       <c r="B3655" t="s">
-        <v>6408</v>
+        <v>6407</v>
       </c>
       <c r="C3655" t="s">
-        <v>6835</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="3656" spans="1:3">
@@ -62304,10 +62305,10 @@
         <v>3655</v>
       </c>
       <c r="B3656" t="s">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="C3656" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="3657" spans="1:3">
@@ -62315,10 +62316,10 @@
         <v>3656</v>
       </c>
       <c r="B3657" t="s">
-        <v>6410</v>
+        <v>6409</v>
       </c>
       <c r="C3657" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3658" spans="1:3">
@@ -62326,10 +62327,10 @@
         <v>3657</v>
       </c>
       <c r="B3658" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="C3658" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="3659" spans="1:3">
@@ -62337,10 +62338,10 @@
         <v>3658</v>
       </c>
       <c r="B3659" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="C3659" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="3660" spans="1:3">
@@ -62348,10 +62349,10 @@
         <v>3659</v>
       </c>
       <c r="B3660" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="C3660" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3661" spans="1:3">
@@ -62359,10 +62360,10 @@
         <v>3660</v>
       </c>
       <c r="B3661" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="C3661" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="3662" spans="1:3">
@@ -62370,10 +62371,10 @@
         <v>3661</v>
       </c>
       <c r="B3662" t="s">
-        <v>6415</v>
+        <v>6414</v>
       </c>
       <c r="C3662" t="s">
-        <v>6840</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="3663" spans="1:3">
@@ -62381,10 +62382,10 @@
         <v>3662</v>
       </c>
       <c r="B3663" t="s">
-        <v>6416</v>
+        <v>6415</v>
       </c>
       <c r="C3663" t="s">
-        <v>6841</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="3664" spans="1:3">
@@ -62392,10 +62393,10 @@
         <v>3663</v>
       </c>
       <c r="B3664" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="C3664" t="s">
-        <v>6842</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="3665" spans="1:3">
@@ -62403,10 +62404,10 @@
         <v>3664</v>
       </c>
       <c r="B3665" t="s">
-        <v>6418</v>
+        <v>6417</v>
       </c>
       <c r="C3665" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="3666" spans="1:3">
@@ -62414,10 +62415,10 @@
         <v>3665</v>
       </c>
       <c r="B3666" t="s">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="C3666" t="s">
-        <v>6844</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="3667" spans="1:3">
@@ -62425,10 +62426,10 @@
         <v>3666</v>
       </c>
       <c r="B3667" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="C3667" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="3668" spans="1:3">
@@ -62436,10 +62437,10 @@
         <v>3667</v>
       </c>
       <c r="B3668" t="s">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="C3668" t="s">
-        <v>6845</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="3669" spans="1:3">
@@ -62447,10 +62448,10 @@
         <v>3668</v>
       </c>
       <c r="B3669" t="s">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="C3669" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="3670" spans="1:3">
@@ -62458,10 +62459,10 @@
         <v>3669</v>
       </c>
       <c r="B3670" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="C3670" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="3671" spans="1:3">
@@ -62469,10 +62470,10 @@
         <v>3670</v>
       </c>
       <c r="B3671" t="s">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="C3671" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="3672" spans="1:3">
@@ -62480,10 +62481,10 @@
         <v>3671</v>
       </c>
       <c r="B3672" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="C3672" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="3673" spans="1:3">
@@ -62491,10 +62492,10 @@
         <v>3672</v>
       </c>
       <c r="B3673" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="C3673" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="3674" spans="1:3">
@@ -62502,10 +62503,10 @@
         <v>3673</v>
       </c>
       <c r="B3674" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="C3674" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="3675" spans="1:3">
@@ -62513,7 +62514,7 @@
         <v>3674</v>
       </c>
       <c r="B3675" t="s">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="C3675" t="s">
         <v>5781</v>
@@ -62524,7 +62525,7 @@
         <v>3675</v>
       </c>
       <c r="B3676" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="C3676" t="s">
         <v>5781</v>
@@ -62535,7 +62536,7 @@
         <v>3676</v>
       </c>
       <c r="B3677" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="C3677" t="s">
         <v>5038</v>
@@ -62546,10 +62547,10 @@
         <v>3677</v>
       </c>
       <c r="B3678" t="s">
-        <v>6431</v>
+        <v>6430</v>
       </c>
       <c r="C3678" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="3679" spans="1:3">
@@ -62557,10 +62558,10 @@
         <v>3678</v>
       </c>
       <c r="B3679" t="s">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="C3679" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="3680" spans="1:3">
@@ -62568,10 +62569,10 @@
         <v>3679</v>
       </c>
       <c r="B3680" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="C3680" t="s">
-        <v>6853</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="3681" spans="1:3">
@@ -62579,10 +62580,10 @@
         <v>3680</v>
       </c>
       <c r="B3681" t="s">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="C3681" t="s">
-        <v>6854</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="3682" spans="1:3">
@@ -62590,7 +62591,7 @@
         <v>3681</v>
       </c>
       <c r="B3682" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="C3682" t="s">
         <v>5314</v>
@@ -62601,7 +62602,7 @@
         <v>3682</v>
       </c>
       <c r="B3683" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="C3683" t="s">
         <v>5314</v>
@@ -62612,10 +62613,10 @@
         <v>3683</v>
       </c>
       <c r="B3684" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="C3684" t="s">
-        <v>6855</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="3685" spans="1:3">
@@ -62623,10 +62624,10 @@
         <v>3684</v>
       </c>
       <c r="B3685" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="C3685" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="3686" spans="1:3">
@@ -62634,10 +62635,10 @@
         <v>3685</v>
       </c>
       <c r="B3686" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="C3686" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="3687" spans="1:3">
@@ -62645,10 +62646,10 @@
         <v>3686</v>
       </c>
       <c r="B3687" t="s">
-        <v>6440</v>
+        <v>6439</v>
       </c>
       <c r="C3687" s="4" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="3688" spans="1:3">
@@ -62656,10 +62657,10 @@
         <v>3687</v>
       </c>
       <c r="B3688" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="C3688" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="3689" spans="1:3">
@@ -62667,10 +62668,10 @@
         <v>3688</v>
       </c>
       <c r="B3689" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="C3689" t="s">
-        <v>6858</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="3690" spans="1:3">
@@ -62678,10 +62679,10 @@
         <v>3689</v>
       </c>
       <c r="B3690" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="C3690" t="s">
-        <v>6859</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="3691" spans="1:3">
@@ -62689,7 +62690,7 @@
         <v>3690</v>
       </c>
       <c r="B3691" t="s">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="C3691" t="s">
         <v>5376</v>
@@ -62700,10 +62701,10 @@
         <v>3691</v>
       </c>
       <c r="B3692" t="s">
-        <v>6445</v>
+        <v>6444</v>
       </c>
       <c r="C3692" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="3693" spans="1:3">
@@ -62711,10 +62712,10 @@
         <v>3692</v>
       </c>
       <c r="B3693" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="C3693" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="3694" spans="1:3">
@@ -62722,10 +62723,10 @@
         <v>3693</v>
       </c>
       <c r="B3694" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="C3694" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="3695" spans="1:3">
@@ -62733,10 +62734,10 @@
         <v>3694</v>
       </c>
       <c r="B3695" t="s">
-        <v>6448</v>
+        <v>6447</v>
       </c>
       <c r="C3695" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="3696" spans="1:3">
@@ -62744,10 +62745,10 @@
         <v>3695</v>
       </c>
       <c r="B3696" t="s">
-        <v>6449</v>
+        <v>6448</v>
       </c>
       <c r="C3696" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="3697" spans="1:3">
@@ -62755,10 +62756,10 @@
         <v>3696</v>
       </c>
       <c r="B3697" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="C3697" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="3698" spans="1:3">
@@ -62766,10 +62767,10 @@
         <v>3697</v>
       </c>
       <c r="B3698" t="s">
-        <v>6451</v>
+        <v>6450</v>
       </c>
       <c r="C3698" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="3699" spans="1:3">
@@ -62777,10 +62778,10 @@
         <v>3698</v>
       </c>
       <c r="B3699" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="C3699" t="s">
-        <v>6863</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="3700" spans="1:3">
@@ -62788,10 +62789,10 @@
         <v>3699</v>
       </c>
       <c r="B3700" t="s">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="C3700" t="s">
-        <v>6864</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="3701" spans="1:3">
@@ -62799,10 +62800,10 @@
         <v>3700</v>
       </c>
       <c r="B3701" t="s">
-        <v>6454</v>
+        <v>6453</v>
       </c>
       <c r="C3701" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="3702" spans="1:3">
@@ -62810,10 +62811,10 @@
         <v>3701</v>
       </c>
       <c r="B3702" t="s">
-        <v>6455</v>
+        <v>6454</v>
       </c>
       <c r="C3702" t="s">
-        <v>6866</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="3703" spans="1:3">
@@ -62821,10 +62822,10 @@
         <v>3702</v>
       </c>
       <c r="B3703" t="s">
-        <v>6456</v>
+        <v>6455</v>
       </c>
       <c r="C3703" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="3704" spans="1:3">
@@ -62832,10 +62833,10 @@
         <v>3703</v>
       </c>
       <c r="B3704" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="C3704" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="3705" spans="1:3">
@@ -62843,7 +62844,7 @@
         <v>3704</v>
       </c>
       <c r="B3705" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="C3705" t="s">
         <v>5286</v>
@@ -62854,7 +62855,7 @@
         <v>3705</v>
       </c>
       <c r="B3706" t="s">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="C3706" t="s">
         <v>5286</v>
@@ -62865,10 +62866,10 @@
         <v>3706</v>
       </c>
       <c r="B3707" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="C3707" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="3708" spans="1:3">
@@ -62876,7 +62877,7 @@
         <v>3707</v>
       </c>
       <c r="B3708" t="s">
-        <v>6461</v>
+        <v>6460</v>
       </c>
       <c r="C3708" t="s">
         <v>5939</v>
@@ -62887,10 +62888,10 @@
         <v>3708</v>
       </c>
       <c r="B3709" t="s">
-        <v>6462</v>
+        <v>6461</v>
       </c>
       <c r="C3709" t="s">
-        <v>6871</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="3710" spans="1:3">
@@ -62898,10 +62899,10 @@
         <v>3709</v>
       </c>
       <c r="B3710" t="s">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="C3710" t="s">
-        <v>6872</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="3711" spans="1:3">
@@ -62909,10 +62910,10 @@
         <v>3710</v>
       </c>
       <c r="B3711" t="s">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="C3711" t="s">
-        <v>6873</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="3712" spans="1:3">
@@ -62920,7 +62921,7 @@
         <v>3711</v>
       </c>
       <c r="B3712" t="s">
-        <v>6465</v>
+        <v>6464</v>
       </c>
       <c r="C3712" t="s">
         <v>5038</v>
@@ -62931,10 +62932,10 @@
         <v>3712</v>
       </c>
       <c r="B3713" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="C3713" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="3714" spans="1:3">
@@ -62945,7 +62946,7 @@
         <v>6255</v>
       </c>
       <c r="C3714" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="3715" spans="1:3">
@@ -62953,10 +62954,10 @@
         <v>3714</v>
       </c>
       <c r="B3715" t="s">
-        <v>6467</v>
+        <v>6466</v>
       </c>
       <c r="C3715" t="s">
-        <v>6875</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="3716" spans="1:3">
@@ -62964,10 +62965,10 @@
         <v>3715</v>
       </c>
       <c r="B3716" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="C3716" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="3717" spans="1:3">
@@ -62975,10 +62976,10 @@
         <v>3716</v>
       </c>
       <c r="B3717" t="s">
-        <v>6469</v>
+        <v>6468</v>
       </c>
       <c r="C3717" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="3718" spans="1:3">
@@ -62986,10 +62987,10 @@
         <v>3717</v>
       </c>
       <c r="B3718" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="C3718" t="s">
-        <v>6877</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="3719" spans="1:3">
@@ -62997,10 +62998,10 @@
         <v>3718</v>
       </c>
       <c r="B3719" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
       <c r="C3719" t="s">
-        <v>6878</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="3720" spans="1:3">
@@ -63008,10 +63009,10 @@
         <v>3719</v>
       </c>
       <c r="B3720" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="C3720" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="3721" spans="1:3">
@@ -63019,10 +63020,10 @@
         <v>3720</v>
       </c>
       <c r="B3721" t="s">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="C3721" t="s">
-        <v>6879</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="3722" spans="1:3">
@@ -63030,10 +63031,10 @@
         <v>3721</v>
       </c>
       <c r="B3722" t="s">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="C3722" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="3723" spans="1:3">
@@ -63041,10 +63042,10 @@
         <v>3722</v>
       </c>
       <c r="B3723" t="s">
-        <v>6475</v>
+        <v>6474</v>
       </c>
       <c r="C3723" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="3724" spans="1:3">
@@ -63052,10 +63053,10 @@
         <v>3723</v>
       </c>
       <c r="B3724" t="s">
-        <v>6476</v>
+        <v>6475</v>
       </c>
       <c r="C3724" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="3725" spans="1:3">
@@ -63063,10 +63064,10 @@
         <v>3724</v>
       </c>
       <c r="B3725" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="C3725" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="3726" spans="1:3">
@@ -63074,10 +63075,10 @@
         <v>3725</v>
       </c>
       <c r="B3726" t="s">
-        <v>6478</v>
+        <v>6477</v>
       </c>
       <c r="C3726" t="s">
-        <v>6882</v>
+        <v>6881</v>
       </c>
     </row>
     <row r="3727" spans="1:3">
@@ -63085,10 +63086,10 @@
         <v>3726</v>
       </c>
       <c r="B3727" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="C3727" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="3728" spans="1:3">
@@ -63096,10 +63097,10 @@
         <v>3727</v>
       </c>
       <c r="B3728" t="s">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="C3728" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3729" spans="1:3">
@@ -63107,10 +63108,10 @@
         <v>3728</v>
       </c>
       <c r="B3729" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="C3729" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3730" spans="1:3">
@@ -63118,10 +63119,10 @@
         <v>3729</v>
       </c>
       <c r="B3730" t="s">
-        <v>6482</v>
+        <v>6481</v>
       </c>
       <c r="C3730" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3731" spans="1:3">
@@ -63129,10 +63130,10 @@
         <v>3730</v>
       </c>
       <c r="B3731" t="s">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="C3731" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3732" spans="1:3">
@@ -63140,10 +63141,10 @@
         <v>3731</v>
       </c>
       <c r="B3732" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="C3732" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3733" spans="1:3">
@@ -63151,7 +63152,7 @@
         <v>3732</v>
       </c>
       <c r="B3733" t="s">
-        <v>6485</v>
+        <v>6484</v>
       </c>
       <c r="C3733" t="s">
         <v>5038</v>
@@ -63162,7 +63163,7 @@
         <v>3733</v>
       </c>
       <c r="B3734" t="s">
-        <v>6486</v>
+        <v>6485</v>
       </c>
       <c r="C3734" t="s">
         <v>5046</v>
@@ -63173,10 +63174,10 @@
         <v>3734</v>
       </c>
       <c r="B3735" t="s">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="C3735" t="s">
-        <v>6885</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="3736" spans="1:3">
@@ -63184,10 +63185,10 @@
         <v>3735</v>
       </c>
       <c r="B3736" t="s">
-        <v>6488</v>
+        <v>6487</v>
       </c>
       <c r="C3736" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="3737" spans="1:3">
@@ -63195,10 +63196,10 @@
         <v>3736</v>
       </c>
       <c r="B3737" t="s">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="C3737" t="s">
-        <v>6886</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="3738" spans="1:3">
@@ -63206,10 +63207,10 @@
         <v>3737</v>
       </c>
       <c r="B3738" t="s">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="C3738" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="3739" spans="1:3">
@@ -63217,7 +63218,7 @@
         <v>3738</v>
       </c>
       <c r="B3739" t="s">
-        <v>6491</v>
+        <v>6490</v>
       </c>
       <c r="C3739" t="s">
         <v>5903</v>
@@ -63228,7 +63229,7 @@
         <v>3739</v>
       </c>
       <c r="B3740" t="s">
-        <v>6492</v>
+        <v>6491</v>
       </c>
       <c r="C3740" t="s">
         <v>5903</v>
@@ -63250,10 +63251,10 @@
         <v>3741</v>
       </c>
       <c r="B3742" t="s">
-        <v>6493</v>
+        <v>6492</v>
       </c>
       <c r="C3742" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="3743" spans="1:3">
@@ -63261,10 +63262,10 @@
         <v>3742</v>
       </c>
       <c r="B3743" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="C3743" t="s">
-        <v>6887</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="3744" spans="1:3">
@@ -63272,10 +63273,10 @@
         <v>3743</v>
       </c>
       <c r="B3744" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="C3744" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="3745" spans="1:3">
@@ -63283,10 +63284,10 @@
         <v>3744</v>
       </c>
       <c r="B3745" t="s">
-        <v>6496</v>
+        <v>6495</v>
       </c>
       <c r="C3745" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="3746" spans="1:3">
@@ -63294,10 +63295,10 @@
         <v>3745</v>
       </c>
       <c r="B3746" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="C3746" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="3747" spans="1:3">
@@ -63305,10 +63306,10 @@
         <v>3746</v>
       </c>
       <c r="B3747" t="s">
-        <v>6498</v>
+        <v>6497</v>
       </c>
       <c r="C3747" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="3748" spans="1:3">
@@ -63316,10 +63317,10 @@
         <v>3747</v>
       </c>
       <c r="B3748" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="C3748" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="3749" spans="1:3">
@@ -63327,10 +63328,10 @@
         <v>3748</v>
       </c>
       <c r="B3749" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="C3749" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="3750" spans="1:3">
@@ -63338,10 +63339,10 @@
         <v>3749</v>
       </c>
       <c r="B3750" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="C3750" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="3751" spans="1:3">
@@ -63349,10 +63350,10 @@
         <v>3750</v>
       </c>
       <c r="B3751" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="C3751" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="3752" spans="1:3">
@@ -63360,10 +63361,10 @@
         <v>3751</v>
       </c>
       <c r="B3752" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="C3752" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="3753" spans="1:3">
@@ -63371,10 +63372,10 @@
         <v>3752</v>
       </c>
       <c r="B3753" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="C3753" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="3754" spans="1:3">
@@ -63382,10 +63383,10 @@
         <v>3753</v>
       </c>
       <c r="B3754" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="C3754" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="3755" spans="1:3">
@@ -63393,10 +63394,10 @@
         <v>3754</v>
       </c>
       <c r="B3755" t="s">
-        <v>6506</v>
+        <v>6505</v>
       </c>
       <c r="C3755" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="3756" spans="1:3">
@@ -63404,10 +63405,10 @@
         <v>3755</v>
       </c>
       <c r="B3756" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="C3756" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="3757" spans="1:3">
@@ -63415,10 +63416,10 @@
         <v>3756</v>
       </c>
       <c r="B3757" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="C3757" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="3758" spans="1:3">
@@ -63426,10 +63427,10 @@
         <v>3757</v>
       </c>
       <c r="B3758" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="C3758" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="3759" spans="1:3">
@@ -63437,10 +63438,10 @@
         <v>3758</v>
       </c>
       <c r="B3759" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="C3759" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="3760" spans="1:3">
@@ -63448,10 +63449,10 @@
         <v>3759</v>
       </c>
       <c r="B3760" t="s">
-        <v>6511</v>
+        <v>6510</v>
       </c>
       <c r="C3760" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="3761" spans="1:3">
@@ -63459,10 +63460,10 @@
         <v>3760</v>
       </c>
       <c r="B3761" t="s">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="C3761" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="3762" spans="1:3">
@@ -63470,10 +63471,10 @@
         <v>3761</v>
       </c>
       <c r="B3762" t="s">
-        <v>6513</v>
+        <v>6512</v>
       </c>
       <c r="C3762" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="3763" spans="1:3">
@@ -63481,10 +63482,10 @@
         <v>3762</v>
       </c>
       <c r="B3763" t="s">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="C3763" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="3764" spans="1:3">
@@ -63492,10 +63493,10 @@
         <v>3763</v>
       </c>
       <c r="B3764" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="C3764" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="3765" spans="1:3">
@@ -63503,10 +63504,10 @@
         <v>3764</v>
       </c>
       <c r="B3765" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="C3765" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="3766" spans="1:3">
@@ -63514,10 +63515,10 @@
         <v>3765</v>
       </c>
       <c r="B3766" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="C3766" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="3767" spans="1:3">
@@ -63525,10 +63526,10 @@
         <v>3766</v>
       </c>
       <c r="B3767" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="C3767" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="3768" spans="1:3">
@@ -63536,10 +63537,10 @@
         <v>3767</v>
       </c>
       <c r="B3768" t="s">
-        <v>6519</v>
+        <v>6518</v>
       </c>
       <c r="C3768" t="s">
-        <v>6870</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="3769" spans="1:3">
@@ -63547,10 +63548,10 @@
         <v>3768</v>
       </c>
       <c r="B3769" t="s">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="C3769" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="3770" spans="1:3">
@@ -63558,10 +63559,10 @@
         <v>3769</v>
       </c>
       <c r="B3770" t="s">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="C3770" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="3771" spans="1:3">
@@ -63569,10 +63570,10 @@
         <v>3770</v>
       </c>
       <c r="B3771" t="s">
-        <v>6522</v>
+        <v>6521</v>
       </c>
       <c r="C3771" t="s">
-        <v>6907</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="3772" spans="1:3">
@@ -63580,10 +63581,10 @@
         <v>3771</v>
       </c>
       <c r="B3772" t="s">
-        <v>6523</v>
+        <v>6522</v>
       </c>
       <c r="C3772" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3773" spans="1:3">
@@ -63591,10 +63592,10 @@
         <v>3772</v>
       </c>
       <c r="B3773" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="C3773" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="3774" spans="1:3">
@@ -63602,10 +63603,10 @@
         <v>3773</v>
       </c>
       <c r="B3774" t="s">
-        <v>6525</v>
+        <v>6524</v>
       </c>
       <c r="C3774" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="3775" spans="1:3">
@@ -63613,7 +63614,7 @@
         <v>3774</v>
       </c>
       <c r="B3775" t="s">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="C3775" t="s">
         <v>5959</v>
@@ -63624,7 +63625,7 @@
         <v>3775</v>
       </c>
       <c r="B3776" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="3777" spans="1:3">
@@ -63632,10 +63633,10 @@
         <v>3776</v>
       </c>
       <c r="B3777" t="s">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="C3777" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="3778" spans="1:3">
@@ -63643,10 +63644,10 @@
         <v>3777</v>
       </c>
       <c r="B3778" t="s">
-        <v>6529</v>
+        <v>6528</v>
       </c>
       <c r="C3778" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="3779" spans="1:3">
@@ -63654,10 +63655,10 @@
         <v>3778</v>
       </c>
       <c r="B3779" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="C3779" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="3780" spans="1:3">
@@ -63665,7 +63666,7 @@
         <v>3779</v>
       </c>
       <c r="B3780" t="s">
-        <v>6531</v>
+        <v>6530</v>
       </c>
       <c r="C3780" t="s">
         <v>5314</v>
@@ -63676,10 +63677,10 @@
         <v>3780</v>
       </c>
       <c r="B3781" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="C3781" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="3782" spans="1:3">
@@ -63690,7 +63691,7 @@
         <v>4844</v>
       </c>
       <c r="C3782" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="3783" spans="1:3">
@@ -63698,10 +63699,10 @@
         <v>3782</v>
       </c>
       <c r="B3783" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="C3783" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="3784" spans="1:3">
@@ -63709,10 +63710,10 @@
         <v>3783</v>
       </c>
       <c r="B3784" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="C3784" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="3785" spans="1:3">
@@ -63720,10 +63721,10 @@
         <v>3784</v>
       </c>
       <c r="B3785" t="s">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="C3785" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="3786" spans="1:3">
@@ -63731,7 +63732,7 @@
         <v>3785</v>
       </c>
       <c r="B3786" t="s">
-        <v>6536</v>
+        <v>6535</v>
       </c>
       <c r="C3786" t="s">
         <v>5128</v>
@@ -63742,10 +63743,10 @@
         <v>3786</v>
       </c>
       <c r="B3787" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="C3787" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="3788" spans="1:3">
@@ -63753,10 +63754,10 @@
         <v>3787</v>
       </c>
       <c r="B3788" t="s">
-        <v>6538</v>
+        <v>6537</v>
       </c>
       <c r="C3788" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
     </row>
     <row r="3789" spans="1:3">
@@ -63764,10 +63765,10 @@
         <v>3788</v>
       </c>
       <c r="B3789" t="s">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="C3789" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="3790" spans="1:3">
@@ -63775,10 +63776,10 @@
         <v>3789</v>
       </c>
       <c r="B3790" t="s">
-        <v>6540</v>
+        <v>6539</v>
       </c>
       <c r="C3790" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="3791" spans="1:3">
@@ -63786,10 +63787,10 @@
         <v>3790</v>
       </c>
       <c r="B3791" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="C3791" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="3792" spans="1:3">
@@ -63797,10 +63798,10 @@
         <v>3791</v>
       </c>
       <c r="B3792" t="s">
-        <v>6542</v>
+        <v>6541</v>
       </c>
       <c r="C3792" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
     </row>
   </sheetData>
